--- a/src/main/resources/excel/dgrid_template.xlsx
+++ b/src/main/resources/excel/dgrid_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F4183-9B70-46FE-8F14-2F335FA7BA8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1EC18-3241-4348-85D4-DBE33781B144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,8 +466,6 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
